--- a/medicine/Enfance/Action_catholique_des_enfants/Action_catholique_des_enfants.xlsx
+++ b/medicine/Enfance/Action_catholique_des_enfants/Action_catholique_des_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Action catholique des enfants, (ACE), est un mouvement chrétien d’éducation populaire français qui s’adresse à tous les enfants de 6 à 15 ans et qui s'appelait autrefois l'association des « Cœurs vaillants-Âmes vaillantes », fondée par les Pères Gaston Courtois et Jean Pihan (prêtre de la congrégation des Fils de la Charité).
 C'est une association loi de 1901 reconnue d'éducation populaire par le ministère de la Jeunesse et des Sports.
@@ -512,7 +524,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le mouvement est organisé en clubs ACE. Il s'agit de petits groupes d'enfants (encadrés par un responsable adulte) et regroupés par tranches d'âges de 2 à 3 ans.
 Chaque tranche d'âge porte un nom :
@@ -547,7 +561,9 @@
           <t>Thème d'année</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le thème d'année est une campagne sur deux ans qui permet de sensibiliser et d'informer les enfants sur des sujets de société qui les préoccupent (respect des autres, environnement, loisirs…).
 2001-2002 : « Si tu l’dis, ça l’fait ! »
@@ -592,10 +608,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fête du jeu
-L'Action catholique des enfants a organisé depuis 1990 une journée « fête du jeu » avec le soutien du ministère de la Jeunesse et des Sports. Depuis 2001, un collectif d'associations, dont fait partie l'ACE, organise cet événement.
-Journée nationale
-Depuis 2005, l'Action Catholique des Enfants fête sa journée nationale le premier dimanche de l'Avent. Environ 500 animations sont organisées en France, parfois autour d'un thème, comme en 2007 (le 70e anniversaire) ou en 2009 ("On a tant de choses à vous dire" pour les 20 ans des droits de l'enfant)
+          <t>Fête du jeu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Action catholique des enfants a organisé depuis 1990 une journée « fête du jeu » avec le soutien du ministère de la Jeunesse et des Sports. Depuis 2001, un collectif d'associations, dont fait partie l'ACE, organise cet événement.
 </t>
         </is>
       </c>
@@ -621,13 +640,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Droits de l'enfant</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 1989, l'association milite en faveur de la ratification par la France de cette Convention Internationale des Droits de l’Enfant que prépare l’ONU. À cette fin, les enfants font signer une pétition en ce sens à leur entourage, qui a recueilli 80 000 signatures et a été remise en décembre 1989 à Hélène Dorlhac, secrétaire d’État à la famille.
-L'association continue de soutenir les droits de l’enfant en relayant les manifestations qui y sont relatives[1]. Elle fait partie du collectif "Agir ensemble pour les droits de l’enfant" (AEDE) qui rassemble 51 organisations pour évaluer la mise en œuvre de la Convention internationale des droits de l'enfant en France[2].
+          <t>Journée nationale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2005, l'Action Catholique des Enfants fête sa journée nationale le premier dimanche de l'Avent. Environ 500 animations sont organisées en France, parfois autour d'un thème, comme en 2007 (le 70e anniversaire) ou en 2009 ("On a tant de choses à vous dire" pour les 20 ans des droits de l'enfant)
 </t>
         </is>
       </c>
@@ -653,12 +677,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>International</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'international, l'Action Catholique des Enfants a donné naissance au MIDADE (Mouvement international d’apostolat des enfants).
+          <t>Droits de l'enfant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, l'association milite en faveur de la ratification par la France de cette Convention Internationale des Droits de l’Enfant que prépare l’ONU. À cette fin, les enfants font signer une pétition en ce sens à leur entourage, qui a recueilli 80 000 signatures et a été remise en décembre 1989 à Hélène Dorlhac, secrétaire d’État à la famille.
+L'association continue de soutenir les droits de l’enfant en relayant les manifestations qui y sont relatives. Elle fait partie du collectif "Agir ensemble pour les droits de l’enfant" (AEDE) qui rassemble 51 organisations pour évaluer la mise en œuvre de la Convention internationale des droits de l'enfant en France.
 </t>
         </is>
       </c>
@@ -684,10 +711,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'international, l'Action Catholique des Enfants a donné naissance au MIDADE (Mouvement international d’apostolat des enfants).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1920 en France, les 'patronages' regroupent de nombreux enfants catholiques de milieux populaires. Le mouvement prend de l'ampleur à travers le pays, sans coordination nationale.
 À partir de la création du journal Cœurs Vaillants le 8 décembre 1929 par Gaston Courtois et Jean Pihan où sont publiées Les Aventures de Tintin de Hergé, les lecteurs se regroupent autour du journal et en 1936 les Évêques demandent officiellement la constitution autour du journal d'un grand mouvement d'enfants chrétiens. Un autre journal, Âmes vaillantes, est fondé le 8 décembre 1938, et le mouvement devient « Cœurs vaillants-Âmes vaillantes ». À partir de novembre 1945 le journal Fripounet et Marisette, destiné aux enfants de 8 à 12 ans (qui deviendra simplement Fripounet en 1969) paraît.
@@ -700,31 +762,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Action_catholique_des_enfants</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Action_catholique_des_enfants</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Plusieurs revues sont éditées par l'Association Catholique des Enfants :
 Relais est un magazine trimestriel destiné aux bénévoles, aux accompagnateurs et aux animateurs (n'est plus publié depuis 2014).
@@ -733,39 +797,41 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Action_catholique_des_enfants</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Action_catholique_des_enfants</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Action_catholique_des_enfants</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Personnalités ayant été membres de l'ACE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Stéphane Arcas, metteur en scène et plasticien, était en club à Nérac.
 Cabu, dessinateur et caricaturiste français, a été en club à Châlons-en-Champagne.
 Mgr Gérard Coliche, évêque auxiliaire de Lille, a été aumônier diocésain de l'ACE de 1974 à 1982
-Cécile Duflot, ministre des gouvernements Ayrault, ancienne secrétaire nationale d'Europe Écologie Les Verts, a été en club ACE[3]
+Cécile Duflot, ministre des gouvernements Ayrault, ancienne secrétaire nationale d'Europe Écologie Les Verts, a été en club ACE
 Mgr Gilbert Louis, évêque de Châlons-en-Champagne, a été aumônier diocésain de l'ACE dans les années 1970
 P. Jean Pihan, fondateur.
-Jeanne Cherhal, chanteuse française, a été responsable ACE en[4]
+Jeanne Cherhal, chanteuse française, a été responsable ACE en
 Jean-Baptiste Harang, écrivain et journaliste français, a été Cœur Vaillant dans le Jura. Il a écrit Nos cœurs vaillants en 2010.
 Alain Souchon et Laurent Voulzy, chanteurs français.</t>
         </is>
